--- a/Data_science_outputs/200pop/output_results/output_analysis_4.xlsx
+++ b/Data_science_outputs/200pop/output_results/output_analysis_4.xlsx
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8122.722850448568</v>
+        <v>6543.656484601369</v>
       </c>
       <c r="C3" t="n">
         <v>4684.050992522978</v>
       </c>
       <c r="D3" t="n">
-        <v>1775.107972122789</v>
+        <v>270.6623123289115</v>
       </c>
       <c r="E3" t="n">
         <v>1620.886383345781</v>
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3390.449268724738</v>
+        <v>3695.750328977708</v>
       </c>
       <c r="C4" t="n">
         <v>2386.846999686242</v>
       </c>
       <c r="D4" t="n">
-        <v>1575.820412836366</v>
+        <v>234.238372227658</v>
       </c>
       <c r="E4" t="n">
         <v>2212.833969859021</v>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>432.011</v>
+        <v>563.0069999999998</v>
       </c>
       <c r="C5" t="n">
         <v>311.004</v>
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5973.780000000001</v>
+        <v>3754.008000000001</v>
       </c>
       <c r="C6" t="n">
         <v>2861.788</v>
       </c>
       <c r="D6" t="n">
-        <v>200.002</v>
+        <v>200.001</v>
       </c>
       <c r="E6" t="n">
         <v>455.004</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7633.003000000001</v>
+        <v>5621.164000000004</v>
       </c>
       <c r="C7" t="n">
         <v>4050.065000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>1900.004</v>
+        <v>280.001</v>
       </c>
       <c r="E7" t="n">
         <v>980.002</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10125.0575</v>
+        <v>8845.182250000013</v>
       </c>
       <c r="C8" t="n">
         <v>6532.156000000012</v>
       </c>
       <c r="D8" t="n">
-        <v>3365</v>
+        <v>294.002</v>
       </c>
       <c r="E8" t="n">
         <v>1955.004</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27383.08800000001</v>
+        <v>28105.07300000001</v>
       </c>
       <c r="C9" t="n">
         <v>11197.08700000001</v>
       </c>
       <c r="D9" t="n">
-        <v>5260</v>
+        <v>2075</v>
       </c>
       <c r="E9" t="n">
         <v>18710.002</v>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>4269303130.194001</v>
+        <v>3439345848.305001</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>202351002.8770001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5819142893341727</v>
+        <v>0.7109339862006124</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>932996750.1480002</v>
+        <v>142260111.36</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2185360752553553</v>
+        <v>0.04136254905278265</v>
       </c>
     </row>
     <row r="13">
@@ -696,7 +696,7 @@
         <v>851937883.0869997</v>
       </c>
       <c r="G13" t="n">
-        <v>0.199549635410472</v>
+        <v>0.2477034647466048</v>
       </c>
     </row>
   </sheetData>
